--- a/01-Class-Activities/Mon-Wed-Class/01-Excel/3/Activities/01-Par_GradeBook/Unsolved/GradeBook_Unsolved.xlsx
+++ b/01-Class-Activities/Mon-Wed-Class/01-Excel/3/Activities/01-Par_GradeBook/Unsolved/GradeBook_Unsolved.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\GitHub\DataViz-Lesson-Plans\01-Lesson-Plans\01-Excel\1\Activities\08-Stu_GradeBook\Unsolved\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\98452\Documents\GitHub\GWU-ARL-DATA-PT-09-2019-U-C\01-Class-Activities\Tue-Thurs-Class\01-Excel\3\Activities\01-Par_GradeBook\Unsolved\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,78 +41,6 @@
     <t>Final Paper</t>
   </si>
   <si>
-    <t>Jackqueline Durbin</t>
-  </si>
-  <si>
-    <t>Lina Petters</t>
-  </si>
-  <si>
-    <t>Hilaria Mcgehee</t>
-  </si>
-  <si>
-    <t>Leroy Dress</t>
-  </si>
-  <si>
-    <t>Raelene Bundy</t>
-  </si>
-  <si>
-    <t>Wayne Mellor</t>
-  </si>
-  <si>
-    <t>Sheena Bolten</t>
-  </si>
-  <si>
-    <t>Shyla Cupples</t>
-  </si>
-  <si>
-    <t>Ben Goforth</t>
-  </si>
-  <si>
-    <t>Alva Renshaw</t>
-  </si>
-  <si>
-    <t>Lucio Elswick</t>
-  </si>
-  <si>
-    <t>Mariana Hillwig</t>
-  </si>
-  <si>
-    <t>Elna Doane</t>
-  </si>
-  <si>
-    <t>Sang Pascarelli</t>
-  </si>
-  <si>
-    <t>Arianna Wagar</t>
-  </si>
-  <si>
-    <t>Antonio Kaur</t>
-  </si>
-  <si>
-    <t>Alethea Wyllie</t>
-  </si>
-  <si>
-    <t>Concetta Lucht</t>
-  </si>
-  <si>
-    <t>Jude Capetillo</t>
-  </si>
-  <si>
-    <t>Gladis Rank</t>
-  </si>
-  <si>
-    <t>Luciano Cuffie</t>
-  </si>
-  <si>
-    <t>Oren Okelley</t>
-  </si>
-  <si>
-    <t>Ha Ruano</t>
-  </si>
-  <si>
-    <t>Damon Sohn</t>
-  </si>
-  <si>
     <t>Final Grade</t>
   </si>
   <si>
@@ -120,6 +48,78 @@
   </si>
   <si>
     <t>Pass/Fail</t>
+  </si>
+  <si>
+    <t>Thomas, Justin</t>
+  </si>
+  <si>
+    <t>Sundaresan, Gayatri</t>
+  </si>
+  <si>
+    <t>Jones, William</t>
+  </si>
+  <si>
+    <t>Konate, Taoule</t>
+  </si>
+  <si>
+    <t>Powell, Stephen</t>
+  </si>
+  <si>
+    <t>van Zalk, John</t>
+  </si>
+  <si>
+    <t>Seymour, Will</t>
+  </si>
+  <si>
+    <t>Mourtoupalas, Nikolas</t>
+  </si>
+  <si>
+    <t>Noriega, Jorge</t>
+  </si>
+  <si>
+    <t>Light, Ericka</t>
+  </si>
+  <si>
+    <t>Carr, Keisha</t>
+  </si>
+  <si>
+    <t>Javier, Janice</t>
+  </si>
+  <si>
+    <t>Balcom, Brittany</t>
+  </si>
+  <si>
+    <t>Luongo, Desiree</t>
+  </si>
+  <si>
+    <t>Torczon, Jethro</t>
+  </si>
+  <si>
+    <t>Tiwari, Rina</t>
+  </si>
+  <si>
+    <t>Ventura, David</t>
+  </si>
+  <si>
+    <t>Black, Alex</t>
+  </si>
+  <si>
+    <t>Woltman, Jack</t>
+  </si>
+  <si>
+    <t>Tosani, Julian</t>
+  </si>
+  <si>
+    <t>Alomoge, Fatima</t>
+  </si>
+  <si>
+    <t>Kent, Chandra</t>
+  </si>
+  <si>
+    <t>Tate, Hannah</t>
+  </si>
+  <si>
+    <t>Rangat, Tara</t>
   </si>
 </sst>
 </file>
@@ -143,12 +143,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -175,10 +181,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -186,8 +192,70 @@
     <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="9"/>
+      <tableStyleElement type="headerRow" dxfId="8"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -197,6 +265,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H25" totalsRowShown="0" headerRowDxfId="0" dataDxfId="2" headerRowBorderDxfId="1" headerRowCellStyle="Heading 3">
+  <autoFilter ref="A1:H25"/>
+  <sortState ref="A2:H25">
+    <sortCondition ref="A1:A25"/>
+  </sortState>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Student Name"/>
+    <tableColumn id="2" name="Midterm Exam" dataDxfId="7"/>
+    <tableColumn id="3" name="Midterm Paper" dataDxfId="6"/>
+    <tableColumn id="4" name="Final Exam" dataDxfId="5"/>
+    <tableColumn id="5" name="Final Paper" dataDxfId="4"/>
+    <tableColumn id="6" name="Final Grade" dataDxfId="3"/>
+    <tableColumn id="7" name="Pass/Fail"/>
+    <tableColumn id="8" name="Letter Grade"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -499,476 +587,481 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="5" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="5" width="15.7109375" customWidth="1"/>
     <col min="6" max="10" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>30</v>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2">
-        <v>85</v>
-      </c>
-      <c r="C2" s="2">
-        <v>84</v>
-      </c>
-      <c r="D2" s="2">
-        <v>90</v>
-      </c>
-      <c r="E2" s="2">
-        <v>56</v>
-      </c>
-      <c r="F2" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="B2" s="1">
+        <v>94</v>
+      </c>
+      <c r="C2" s="1">
+        <v>92</v>
+      </c>
+      <c r="D2" s="1">
+        <v>86</v>
+      </c>
+      <c r="E2" s="1">
+        <v>100</v>
+      </c>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2">
-        <v>48</v>
-      </c>
-      <c r="C3" s="2">
-        <v>57</v>
-      </c>
-      <c r="D3" s="2">
-        <v>97</v>
-      </c>
-      <c r="E3" s="2">
-        <v>95</v>
-      </c>
-      <c r="F3" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B3" s="1">
+        <v>59</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43</v>
+      </c>
+      <c r="D3" s="1">
+        <v>43</v>
+      </c>
+      <c r="E3" s="1">
+        <v>52</v>
+      </c>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2">
-        <v>96</v>
-      </c>
-      <c r="C4" s="2">
-        <v>100</v>
-      </c>
-      <c r="D4" s="2">
-        <v>97</v>
-      </c>
-      <c r="E4" s="2">
-        <v>87</v>
-      </c>
-      <c r="F4" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="B4" s="1">
+        <v>95</v>
+      </c>
+      <c r="C4" s="1">
+        <v>80</v>
+      </c>
+      <c r="D4" s="1">
+        <v>88</v>
+      </c>
+      <c r="E4" s="1">
+        <v>89</v>
+      </c>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2">
-        <v>52</v>
-      </c>
-      <c r="C5" s="2">
-        <v>52</v>
-      </c>
-      <c r="D5" s="2">
-        <v>64</v>
-      </c>
-      <c r="E5" s="2">
-        <v>63</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="B5" s="1">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1">
+        <v>87</v>
+      </c>
+      <c r="D5" s="1">
+        <v>43</v>
+      </c>
+      <c r="E5" s="1">
+        <v>55</v>
+      </c>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2">
-        <v>89</v>
-      </c>
-      <c r="C6" s="2">
-        <v>57</v>
-      </c>
-      <c r="D6" s="2">
-        <v>90</v>
-      </c>
-      <c r="E6" s="2">
-        <v>85</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="B6" s="1">
+        <v>83</v>
+      </c>
+      <c r="C6" s="1">
+        <v>42</v>
+      </c>
+      <c r="D6" s="1">
+        <v>67</v>
+      </c>
+      <c r="E6" s="1">
+        <v>46</v>
+      </c>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2">
-        <v>71</v>
-      </c>
-      <c r="C7" s="2">
-        <v>93</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="B7" s="1">
+        <v>96</v>
+      </c>
+      <c r="C7" s="1">
+        <v>100</v>
+      </c>
+      <c r="D7" s="1">
         <v>97</v>
       </c>
-      <c r="E7" s="2">
-        <v>55</v>
-      </c>
-      <c r="F7" s="2"/>
+      <c r="E7" s="1">
+        <v>87</v>
+      </c>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2">
-        <v>97</v>
-      </c>
-      <c r="C8" s="2">
-        <v>90</v>
-      </c>
-      <c r="D8" s="2">
-        <v>70</v>
-      </c>
-      <c r="E8" s="2">
-        <v>83</v>
-      </c>
-      <c r="F8" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="B8" s="1">
+        <v>55</v>
+      </c>
+      <c r="C8" s="1">
+        <v>52</v>
+      </c>
+      <c r="D8" s="1">
+        <v>76</v>
+      </c>
+      <c r="E8" s="1">
+        <v>48</v>
+      </c>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2">
-        <v>67</v>
-      </c>
-      <c r="C9" s="2">
-        <v>62</v>
-      </c>
-      <c r="D9" s="2">
-        <v>48</v>
-      </c>
-      <c r="E9" s="2">
-        <v>43</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>52</v>
+      </c>
+      <c r="C9" s="1">
+        <v>52</v>
+      </c>
+      <c r="D9" s="1">
+        <v>64</v>
+      </c>
+      <c r="E9" s="1">
+        <v>63</v>
+      </c>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2">
-        <v>100</v>
-      </c>
-      <c r="C10" s="2">
-        <v>94</v>
-      </c>
-      <c r="D10" s="2">
-        <v>90</v>
-      </c>
-      <c r="E10" s="2">
-        <v>95</v>
-      </c>
-      <c r="F10" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="B10" s="1">
+        <v>88</v>
+      </c>
+      <c r="C10" s="1">
+        <v>61</v>
+      </c>
+      <c r="D10" s="1">
+        <v>45</v>
+      </c>
+      <c r="E10" s="1">
+        <v>47</v>
+      </c>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2">
-        <v>88</v>
-      </c>
-      <c r="C11" s="2">
-        <v>61</v>
-      </c>
-      <c r="D11" s="2">
-        <v>45</v>
-      </c>
-      <c r="E11" s="2">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1">
         <v>47</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="D11" s="1">
+        <v>92</v>
+      </c>
+      <c r="E11" s="1">
+        <v>57</v>
+      </c>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="2">
-        <v>44</v>
-      </c>
-      <c r="C12" s="2">
-        <v>87</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="B12" s="1">
+        <v>67</v>
+      </c>
+      <c r="C12" s="1">
+        <v>62</v>
+      </c>
+      <c r="D12" s="1">
+        <v>48</v>
+      </c>
+      <c r="E12" s="1">
         <v>43</v>
       </c>
-      <c r="E12" s="2">
-        <v>55</v>
-      </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="2">
-        <v>83</v>
-      </c>
-      <c r="C13" s="2">
-        <v>42</v>
-      </c>
-      <c r="D13" s="2">
-        <v>67</v>
-      </c>
-      <c r="E13" s="2">
-        <v>46</v>
-      </c>
-      <c r="F13" s="2"/>
+      <c r="B13" s="1">
+        <v>100</v>
+      </c>
+      <c r="C13" s="1">
+        <v>94</v>
+      </c>
+      <c r="D13" s="1">
+        <v>90</v>
+      </c>
+      <c r="E13" s="1">
+        <v>95</v>
+      </c>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="2">
-        <v>59</v>
-      </c>
-      <c r="C14" s="2">
-        <v>43</v>
-      </c>
-      <c r="D14" s="2">
-        <v>43</v>
-      </c>
-      <c r="E14" s="2">
-        <v>52</v>
-      </c>
-      <c r="F14" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>89</v>
+      </c>
+      <c r="C14" s="1">
+        <v>57</v>
+      </c>
+      <c r="D14" s="1">
+        <v>90</v>
+      </c>
+      <c r="E14" s="1">
+        <v>85</v>
+      </c>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="2">
-        <v>54</v>
-      </c>
-      <c r="C15" s="2">
-        <v>47</v>
-      </c>
-      <c r="D15" s="2">
-        <v>92</v>
-      </c>
-      <c r="E15" s="2">
-        <v>57</v>
-      </c>
-      <c r="F15" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="B15" s="1">
+        <v>53</v>
+      </c>
+      <c r="C15" s="1">
+        <v>97</v>
+      </c>
+      <c r="D15" s="1">
+        <v>74</v>
+      </c>
+      <c r="E15" s="1">
+        <v>53</v>
+      </c>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="2">
-        <v>73</v>
-      </c>
-      <c r="C16" s="2">
-        <v>98</v>
-      </c>
-      <c r="D16" s="2">
-        <v>59</v>
-      </c>
-      <c r="E16" s="2">
-        <v>73</v>
-      </c>
-      <c r="F16" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>97</v>
+      </c>
+      <c r="C16" s="1">
+        <v>90</v>
+      </c>
+      <c r="D16" s="1">
+        <v>70</v>
+      </c>
+      <c r="E16" s="1">
+        <v>83</v>
+      </c>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="2">
-        <v>75</v>
-      </c>
-      <c r="C17" s="2">
-        <v>72</v>
-      </c>
-      <c r="D17" s="2">
-        <v>87</v>
-      </c>
-      <c r="E17" s="2">
-        <v>53</v>
-      </c>
-      <c r="F17" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="B17" s="1">
+        <v>48</v>
+      </c>
+      <c r="C17" s="1">
+        <v>57</v>
+      </c>
+      <c r="D17" s="1">
+        <v>97</v>
+      </c>
+      <c r="E17" s="1">
+        <v>95</v>
+      </c>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="2">
-        <v>90</v>
-      </c>
-      <c r="C18" s="2">
-        <v>97</v>
-      </c>
-      <c r="D18" s="2">
-        <v>100</v>
-      </c>
-      <c r="E18" s="2">
-        <v>97</v>
-      </c>
-      <c r="F18" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="B18" s="1">
+        <v>41</v>
+      </c>
+      <c r="C18" s="1">
+        <v>44</v>
+      </c>
+      <c r="D18" s="1">
+        <v>95</v>
+      </c>
+      <c r="E18" s="1">
+        <v>55</v>
+      </c>
+      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="2">
-        <v>95</v>
-      </c>
-      <c r="C19" s="2">
-        <v>80</v>
-      </c>
-      <c r="D19" s="2">
-        <v>88</v>
-      </c>
-      <c r="E19" s="2">
-        <v>89</v>
-      </c>
-      <c r="F19" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B19" s="1">
+        <v>85</v>
+      </c>
+      <c r="C19" s="1">
+        <v>84</v>
+      </c>
+      <c r="D19" s="1">
+        <v>90</v>
+      </c>
+      <c r="E19" s="1">
+        <v>56</v>
+      </c>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="2">
-        <v>66</v>
-      </c>
-      <c r="C20" s="2">
-        <v>100</v>
-      </c>
-      <c r="D20" s="2">
-        <v>93</v>
-      </c>
-      <c r="E20" s="2">
-        <v>82</v>
-      </c>
-      <c r="F20" s="2"/>
+      <c r="B20" s="1">
+        <v>75</v>
+      </c>
+      <c r="C20" s="1">
+        <v>72</v>
+      </c>
+      <c r="D20" s="1">
+        <v>87</v>
+      </c>
+      <c r="E20" s="1">
+        <v>53</v>
+      </c>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="2">
-        <v>46</v>
-      </c>
-      <c r="C21" s="2">
-        <v>74</v>
-      </c>
-      <c r="D21" s="2">
-        <v>92</v>
-      </c>
-      <c r="E21" s="2">
-        <v>87</v>
-      </c>
-      <c r="F21" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="B21" s="1">
+        <v>73</v>
+      </c>
+      <c r="C21" s="1">
+        <v>98</v>
+      </c>
+      <c r="D21" s="1">
+        <v>59</v>
+      </c>
+      <c r="E21" s="1">
+        <v>73</v>
+      </c>
+      <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="2">
-        <v>94</v>
-      </c>
-      <c r="C22" s="2">
+        <v>27</v>
+      </c>
+      <c r="B22" s="1">
+        <v>46</v>
+      </c>
+      <c r="C22" s="1">
+        <v>74</v>
+      </c>
+      <c r="D22" s="1">
         <v>92</v>
       </c>
-      <c r="D22" s="2">
-        <v>86</v>
-      </c>
-      <c r="E22" s="2">
-        <v>100</v>
-      </c>
-      <c r="F22" s="2"/>
+      <c r="E22" s="1">
+        <v>87</v>
+      </c>
+      <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="2">
+        <v>13</v>
+      </c>
+      <c r="B23" s="1">
+        <v>71</v>
+      </c>
+      <c r="C23" s="1">
+        <v>93</v>
+      </c>
+      <c r="D23" s="1">
+        <v>97</v>
+      </c>
+      <c r="E23" s="1">
         <v>55</v>
       </c>
-      <c r="C23" s="2">
-        <v>52</v>
-      </c>
-      <c r="D23" s="2">
-        <v>76</v>
-      </c>
-      <c r="E23" s="2">
-        <v>48</v>
-      </c>
-      <c r="F23" s="2"/>
+      <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="2">
-        <v>41</v>
-      </c>
-      <c r="C24" s="2">
-        <v>44</v>
-      </c>
-      <c r="D24" s="2">
-        <v>95</v>
-      </c>
-      <c r="E24" s="2">
-        <v>55</v>
-      </c>
-      <c r="F24" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="B24" s="1">
+        <v>90</v>
+      </c>
+      <c r="C24" s="1">
+        <v>97</v>
+      </c>
+      <c r="D24" s="1">
+        <v>100</v>
+      </c>
+      <c r="E24" s="1">
+        <v>97</v>
+      </c>
+      <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="2">
-        <v>53</v>
-      </c>
-      <c r="C25" s="2">
-        <v>97</v>
-      </c>
-      <c r="D25" s="2">
-        <v>74</v>
-      </c>
-      <c r="E25" s="2">
-        <v>53</v>
-      </c>
-      <c r="F25" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="B25" s="1">
+        <v>66</v>
+      </c>
+      <c r="C25" s="1">
+        <v>100</v>
+      </c>
+      <c r="D25" s="1">
+        <v>93</v>
+      </c>
+      <c r="E25" s="1">
+        <v>82</v>
+      </c>
+      <c r="F25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>